--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9147DC-D6B9-4C97-8FBA-B2D6A5D7689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF9BA2-7FBF-4DAE-8C0F-41CEE19CCCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>08/05/2024</t>
   </si>
   <si>
-    <t>more data formatting</t>
+    <t>more data formatting, finished framework for building studentgrades df</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -594,7 +594,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF9BA2-7FBF-4DAE-8C0F-41CEE19CCCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B6E2A3-C8A2-4B38-B1FC-713AE83C3DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>more data formatting, finished framework for building studentgrades df</t>
+  </si>
+  <si>
+    <t>09/05/2024</t>
+  </si>
+  <si>
+    <t>fixed bugs</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -594,10 +600,21 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B6E2A3-C8A2-4B38-B1FC-713AE83C3DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF4669-EEB6-4A09-BFED-40B13BF22583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -50,49 +50,25 @@
     <t>Links</t>
   </si>
   <si>
-    <t>25/04/2024</t>
-  </si>
-  <si>
     <t>Daniel setting me up</t>
   </si>
   <si>
-    <t>30/04/2024</t>
-  </si>
-  <si>
     <t>First meeting with Irene to talk over project</t>
   </si>
   <si>
-    <t>02/05/2024</t>
-  </si>
-  <si>
     <t>trying out xgboosted model</t>
   </si>
   <si>
-    <t>03/05/2024</t>
-  </si>
-  <si>
-    <t>05/05/2024</t>
-  </si>
-  <si>
-    <t>06/05/2024</t>
-  </si>
-  <si>
-    <t>07/05/2024</t>
-  </si>
-  <si>
     <t>meeting, trying to format data</t>
   </si>
   <si>
-    <t>08/05/2024</t>
-  </si>
-  <si>
     <t>more data formatting, finished framework for building studentgrades df</t>
   </si>
   <si>
-    <t>09/05/2024</t>
-  </si>
-  <si>
     <t>fixed bugs</t>
+  </si>
+  <si>
+    <t>adding majors and minors to studentgrades, no combined majors yet</t>
   </si>
 </sst>
 </file>
@@ -159,10 +135,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,124 +473,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.86328125" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="2.1328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="43.1328125" customWidth="1"/>
     <col min="5" max="5" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="4">
+        <v>45407</v>
       </c>
       <c r="B2">
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="4">
+        <v>45412</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4" s="4">
+        <v>45414</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="4">
+        <v>45415</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="4">
+        <v>45417</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="4">
+        <v>45418</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="4">
+        <v>45419</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>15</v>
+      <c r="A9" s="4">
+        <v>45420</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A10" s="4">
+        <v>45421</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>45422</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF4669-EEB6-4A09-BFED-40B13BF22583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627DCA8-9C8E-46B4-901B-ADBEB90B6956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="8295" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>fixed bugs</t>
   </si>
   <si>
-    <t>adding majors and minors to studentgrades, no combined majors yet</t>
+    <t>adding majors and minors to studentgrades, combined majors now work</t>
   </si>
 </sst>
 </file>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -598,10 +598,15 @@
         <v>45422</v>
       </c>
       <c r="B11">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
+        <v>45425</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627DCA8-9C8E-46B4-901B-ADBEB90B6956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FFBDF-E80E-4060-B83D-312977B067F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="8295" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>adding majors and minors to studentgrades, combined majors now work</t>
+  </si>
+  <si>
+    <t>finished and pushed student major/minor, need to ask about other options… Now it’s time to find and fix bugs of empty columns…</t>
   </si>
 </sst>
 </file>
@@ -133,12 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +482,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -604,9 +610,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FFBDF-E80E-4060-B83D-312977B067F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8452ED7A-10C1-4F03-BE58-FB9FF7D92F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -615,7 +615,7 @@
         <v>45425</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8452ED7A-10C1-4F03-BE58-FB9FF7D92F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA0B52-3206-40A2-B2F9-B9D2ECBD6FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>finished and pushed student major/minor, need to ask about other options… Now it’s time to find and fix bugs of empty columns…</t>
+  </si>
+  <si>
+    <t>trying out random forests, missForest, and GBM</t>
   </si>
 </sst>
 </file>
@@ -479,22 +482,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.1328125" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -520,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -531,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -542,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -550,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -558,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -566,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -577,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -588,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -599,7 +602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -610,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -619,6 +622,17 @@
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45426</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA0B52-3206-40A2-B2F9-B9D2ECBD6FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09970365-4D3D-4733-92D8-D232604B055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>45426</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09970365-4D3D-4733-92D8-D232604B055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1240788F-923A-4FCE-B883-FC1B02EED337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>trying out random forests, missForest, and GBM</t>
+  </si>
+  <si>
+    <t>removed all "future" courses (aka retries at the same course AND courses of a higher year level)</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>compare relevancies between courses| create a multi output regression model</t>
   </si>
 </sst>
 </file>
@@ -482,22 +491,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.1328125" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +521,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -523,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -534,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -545,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -553,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -561,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -569,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -580,7 +593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -591,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -602,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -613,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -624,19 +637,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>45427</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1240788F-923A-4FCE-B883-FC1B02EED337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF810C6-03BC-4D4C-A1C2-9F1E1060815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>TODO</t>
   </si>
   <si>
-    <t>compare relevancies between courses| create a multi output regression model</t>
+    <t xml:space="preserve">compare relevancies between courses| create a multi output regression model </t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -653,7 +653,7 @@
         <v>45427</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF810C6-03BC-4D4C-A1C2-9F1E1060815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1B4DD-9447-418D-B215-23D08A537463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">compare relevancies between courses| create a multi output regression model </t>
+  </si>
+  <si>
+    <t>added prediction metrics</t>
+  </si>
+  <si>
+    <t>Look into other and all metrics, the potential of RF's again</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -662,6 +668,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>45428</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1B4DD-9447-418D-B215-23D08A537463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FE6716-C0D1-4969-9F11-FE65F3A90693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Look into other and all metrics, the potential of RF's again</t>
+  </si>
+  <si>
+    <t>Looking into confusion matrices to aid in precision</t>
   </si>
 </sst>
 </file>
@@ -154,13 +157,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -508,7 +514,7 @@
     <col min="1" max="1" width="12.86328125" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.1328125" customWidth="1"/>
+    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
     <col min="5" max="5" width="27.59765625" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
@@ -521,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -538,7 +544,7 @@
       <c r="B2">
         <v>1.5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -549,7 +555,7 @@
       <c r="B3">
         <v>0.5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -560,7 +566,7 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -595,18 +601,18 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -617,18 +623,18 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -650,7 +656,7 @@
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -673,13 +679,22 @@
         <v>45428</v>
       </c>
       <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>45429</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FE6716-C0D1-4969-9F11-FE65F3A90693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71CD91-D804-4C50-BB75-E4638CC2A974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -92,7 +92,10 @@
     <t>Look into other and all metrics, the potential of RF's again</t>
   </si>
   <si>
-    <t>Looking into confusion matrices to aid in precision</t>
+    <t xml:space="preserve">Confusion matrix only useful for prediction, </t>
+  </si>
+  <si>
+    <t>Adding in BA student to widen the model training pool</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -690,13 +693,24 @@
         <v>45429</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>45430</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71CD91-D804-4C50-BB75-E4638CC2A974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B1D7D-B4C3-48AD-99C3-6A3B2103AB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -95,7 +95,36 @@
     <t xml:space="preserve">Confusion matrix only useful for prediction, </t>
   </si>
   <si>
-    <t>Adding in BA student to widen the model training pool</t>
+    <t>Adding in BA student to widen the model training pool (reversed..)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Look into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>best</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grade student receives</t>
+    </r>
+  </si>
+  <si>
+    <t>Creating a new dataframe to save only newest grades student recieves, weights are based on rows in GBM</t>
   </si>
 </sst>
 </file>
@@ -506,23 +535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -551,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -562,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -573,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -581,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -589,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -597,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -608,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -619,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -630,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -641,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -652,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -663,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -677,7 +706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -688,7 +717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -702,15 +731,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45431</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B1D7D-B4C3-48AD-99C3-6A3B2103AB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2886B-21B1-4265-9CA4-DCCDBD9C6CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Creating a new dataframe to save only newest grades student recieves, weights are based on rows in GBM</t>
+  </si>
+  <si>
+    <t>Work meeting, looking into many new papers and models (matrix factorization)</t>
   </si>
 </sst>
 </file>
@@ -535,23 +538,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+    <col min="6" max="6" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -580,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -591,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -602,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -610,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -618,7 +621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -626,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -637,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -648,7 +651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -659,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -670,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -681,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -692,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -706,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -717,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -731,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -742,7 +745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -754,6 +757,17 @@
       </c>
       <c r="F18" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>45433</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2886B-21B1-4265-9CA4-DCCDBD9C6CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DE5AE3-4A76-4776-BC36-B2B4CAE0BD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Work meeting, looking into many new papers and models (matrix factorization)</t>
+  </si>
+  <si>
+    <t>Researching NMF as a method of grade estimation</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -770,6 +773,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>45434</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DE5AE3-4A76-4776-BC36-B2B4CAE0BD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF5DFE-3DA6-44F2-819C-8614C5684D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -130,7 +130,10 @@
     <t>Work meeting, looking into many new papers and models (matrix factorization)</t>
   </si>
   <si>
-    <t>Researching NMF as a method of grade estimation</t>
+    <t>https://modernscholarship.org/docs/2-2-PredSRMF.pdf</t>
+  </si>
+  <si>
+    <t>Researching NMF as a method of grade estimation… cant handle NA's so nope. Now trying normal MF on STAT230 and its pre-reqs</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -773,15 +776,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>45435</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF5DFE-3DA6-44F2-819C-8614C5684D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792945DB-508E-4C3D-9667-B89780F783ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Researching NMF as a method of grade estimation… cant handle NA's so nope. Now trying normal MF on STAT230 and its pre-reqs</t>
+  </si>
+  <si>
+    <t>MF working, similar mse, need to format new dataframe to train and test with</t>
+  </si>
+  <si>
+    <t>Finished mf using recosystem, not very good.. Looking to optimize</t>
   </si>
 </sst>
 </file>
@@ -544,23 +550,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" customWidth="1"/>
-    <col min="6" max="6" width="31.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -589,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -600,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -611,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -619,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -627,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -635,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -646,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -657,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -668,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -679,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -690,7 +696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -701,7 +707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -715,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -726,7 +732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -740,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -751,7 +757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -765,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -776,7 +782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -790,12 +796,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
       <c r="B21">
         <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45436</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792945DB-508E-4C3D-9667-B89780F783ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58C9062-E4BC-4E96-AF2A-105003C23AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="29385" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -139,7 +139,13 @@
     <t>MF working, similar mse, need to format new dataframe to train and test with</t>
   </si>
   <si>
-    <t>Finished mf using recosystem, not very good.. Looking to optimize</t>
+    <t>Finished mf using recosystem, not very good.. Looking to optimize. Workday banking setup and courses.</t>
+  </si>
+  <si>
+    <t>Workday courses and minor testing</t>
+  </si>
+  <si>
+    <t>Changing course, no MF, at least not reguarly. Back to the drawing board.</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,15 +813,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45438</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58C9062-E4BC-4E96-AF2A-105003C23AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCCD2B6-FF74-4D20-8950-6484D0A75D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Changing course, no MF, at least not reguarly. Back to the drawing board.</t>
+  </si>
+  <si>
+    <t>Looking into factorization machines and support vector machines. Trying to implement from scratch or use packages. Looking into the possibility of representing the student grades matrix as a binary matrix to use FMs. Planning to conduct a grid search on GBM parameters too.</t>
   </si>
 </sst>
 </file>
@@ -556,23 +559,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+    <col min="6" max="6" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -601,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -612,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -623,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -631,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -639,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -647,7 +650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -658,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -669,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -680,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -691,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -702,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -713,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -727,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -738,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -752,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -763,7 +766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -777,7 +780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -788,7 +791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -802,7 +805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -813,7 +816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -824,7 +827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -836,6 +839,17 @@
       </c>
       <c r="F23" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>45439</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCCD2B6-FF74-4D20-8950-6484D0A75D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64E32B2-FEBD-4F45-8CE7-F7823169AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Looking into factorization machines and support vector machines. Trying to implement from scratch or use packages. Looking into the possibility of representing the student grades matrix as a binary matrix to use FMs. Planning to conduct a grid search on GBM parameters too.</t>
+  </si>
+  <si>
+    <t>Imputation into random forest seems to work the best…</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -852,6 +855,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>45440</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64E32B2-FEBD-4F45-8CE7-F7823169AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA206006-4FC9-42BE-90B8-CF8AAE77FDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Imputation into random forest seems to work the best…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
   </si>
 </sst>
 </file>
@@ -562,23 +565,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" customWidth="1"/>
-    <col min="6" max="6" width="31.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -607,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -618,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -629,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -637,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -645,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -653,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -664,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -675,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -686,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -697,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -708,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -719,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -733,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -744,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -758,7 +761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -769,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -783,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -794,7 +797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -808,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -819,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -830,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -844,7 +847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -855,15 +858,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45441</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA206006-4FC9-42BE-90B8-CF8AAE77FDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C08764F-8A8F-4629-BCF6-7F30DC30F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>Imputation into random forest seems to work the best…</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting </t>
+    <t>Meeting. Tried pairwise correlation, high cor on odd subjects (eg. Hist115 and stat230)</t>
   </si>
 </sst>
 </file>
@@ -568,20 +568,20 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+    <col min="6" max="6" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -667,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -711,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -747,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -772,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -786,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -797,7 +797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -811,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -822,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -833,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -858,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -869,12 +869,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>31</v>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C08764F-8A8F-4629-BCF6-7F30DC30F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDF17B-D1B7-4ED1-8255-1C02B946101A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>Imputation into random forest seems to work the best…</t>
   </si>
   <si>
-    <t>Meeting. Tried pairwise correlation, high cor on odd subjects (eg. Hist115 and stat230)</t>
+    <t>Meeting. Tried pairwise correlation, high cor on odd subjects (eg. Hist115 and stat230). Structured learning algorithms don’t seem to be finding any worthwhile connections</t>
   </si>
 </sst>
 </file>
@@ -568,20 +568,20 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" customWidth="1"/>
-    <col min="6" max="6" width="31.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -667,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -711,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -747,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -772,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -786,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -797,7 +797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -811,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -822,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -833,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -858,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -869,12 +869,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>31</v>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDF17B-D1B7-4ED1-8255-1C02B946101A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3933A80-99C8-4ECA-AF79-92C9578E4DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Meeting. Tried pairwise correlation, high cor on odd subjects (eg. Hist115 and stat230). Structured learning algorithms don’t seem to be finding any worthwhile connections</t>
+  </si>
+  <si>
+    <t>Workday courses. Looked into SVM, going to have to change how the data is formatted. Now looking for more feature selection models (gbm somehow works)</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,6 +883,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45442</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3933A80-99C8-4ECA-AF79-92C9578E4DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0659724-B1B5-4F60-8A6D-6FB2CE9A5BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +894,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45443</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0659724-B1B5-4F60-8A6D-6FB2CE9A5BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E715667F-42AA-43B2-A933-A0000476A12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Workday courses. Looked into SVM, going to have to change how the data is formatted. Now looking for more feature selection models (gbm somehow works)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading papers on feature selection. Lasso, </t>
+  </si>
+  <si>
+    <t>Regroup w Daniel. Starting new rmd on GBMs</t>
   </si>
 </sst>
 </file>
@@ -568,23 +574,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+    <col min="6" max="6" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -613,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -624,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -635,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -643,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -651,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -659,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -670,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -681,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -692,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -703,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -714,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -725,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -739,7 +745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -750,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -764,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -775,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -789,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -800,7 +806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -814,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -825,7 +831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -836,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -850,7 +856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -861,7 +867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -872,7 +878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -883,7 +889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -894,12 +900,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
       <c r="B28">
         <v>4</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E715667F-42AA-43B2-A933-A0000476A12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C8E4C-A024-4B4B-8F79-F0CA73B60252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="29730" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,20 +577,20 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="2.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" customWidth="1"/>
-    <col min="6" max="6" width="31.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -687,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -720,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -731,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -756,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -781,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -795,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -806,7 +806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -820,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -831,7 +831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -842,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -856,7 +856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -867,7 +867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -878,7 +878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -889,7 +889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -900,7 +900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -911,12 +911,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>34</v>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C8E4C-A024-4B4B-8F79-F0CA73B60252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36112AD-9B10-4A31-B08E-29F726612990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -163,7 +164,49 @@
     <t xml:space="preserve">Reading papers on feature selection. Lasso, </t>
   </si>
   <si>
-    <t>Regroup w Daniel. Starting new rmd on GBMs</t>
+    <t>Literature review</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>matrix factorization</t>
+  </si>
+  <si>
+    <t>modernscholarship.org/docs/2-2-PredSRMF.pdf</t>
+  </si>
+  <si>
+    <t>9.7 for MF, 10.3 for student average, 12.4 for course average</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s41060-016-0024-z</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>0.6 on 0-4 grading scale… ~15% if we convert to % grade</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1604.01840</t>
+  </si>
+  <si>
+    <t>0.77 on 0-4 scale</t>
+  </si>
+  <si>
+    <t>0.13 on classification GPA…</t>
+  </si>
+  <si>
+    <t>https://dergipark.org.tr/en/download/article-file/59884#page=209</t>
+  </si>
+  <si>
+    <t>Regroup w Daniel. Starting new rmd on GBMs, regression works, classification has some weird results</t>
   </si>
 </sst>
 </file>
@@ -577,7 +620,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,15 +954,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -927,4 +970,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6B818-4E6A-4A11-BF2D-96E6BC2AE7F3}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36112AD-9B10-4A31-B08E-29F726612990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B4230E-6252-495C-A28B-00C39D2E6E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,27 @@
   </si>
   <si>
     <t>Regroup w Daniel. Starting new rmd on GBMs, regression works, classification has some weird results</t>
+  </si>
+  <si>
+    <t>Day of week</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Sorting code for meeting, meeting, grid search of parameters, added 95% CI error bars to predictions graph</t>
   </si>
 </sst>
 </file>
@@ -617,352 +638,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4"/>
+      <c r="C2">
         <v>1.5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4"/>
+      <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4"/>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4"/>
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4"/>
+      <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4"/>
+      <c r="C7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4"/>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4"/>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4"/>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4"/>
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
         <v>7</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
         <v>8</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -980,15 +1083,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1002,7 +1105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1013,7 +1116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1024,7 +1127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B4230E-6252-495C-A28B-00C39D2E6E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8952C05-1B4A-4E69-8ED0-09D2270354FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Sorting code for meeting, meeting, grid search of parameters, added 95% CI error bars to predictions graph</t>
+  </si>
+  <si>
+    <t>Looking into different tree structures and loss functions to build upon</t>
+  </si>
+  <si>
+    <t>Revisiting error bars, very small. Reviewing xgboost and different loss functions to implement. Looking into why data is predicted in such a small range + graphing it</t>
   </si>
 </sst>
 </file>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1066,6 +1072,34 @@
       </c>
       <c r="E30" s="5" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A32" s="4">
+        <v>45453</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8952C05-1B4A-4E69-8ED0-09D2270354FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05353E-3721-442C-B792-8328F087D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Revisiting error bars, very small. Reviewing xgboost and different loss functions to implement. Looking into why data is predicted in such a small range + graphing it</t>
+  </si>
+  <si>
+    <t>want to run grid search on xgboost</t>
+  </si>
+  <si>
+    <t>Meeting, using quantile regression for error bars. Xgboost is working, grid search on xgboost</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
@@ -1100,6 +1106,23 @@
       </c>
       <c r="E32" s="5" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
+        <v>45454</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05353E-3721-442C-B792-8328F087D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373FF82-659A-4468-B918-0902251B18D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Meeting, using quantile regression for error bars. Xgboost is working, grid search on xgboost</t>
+  </si>
+  <si>
+    <t>Still running grid search, added back in grades &lt; 60. Removing rows without prereqs helped a bunch on train/test. Quantile error bars look good w new data</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1123,6 +1126,20 @@
       </c>
       <c r="G33" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="4">
+        <v>45455</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373FF82-659A-4468-B918-0902251B18D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9539B-0CAC-4CC4-BD18-4AEA2BBB4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -242,7 +242,10 @@
     <t>Meeting, using quantile regression for error bars. Xgboost is working, grid search on xgboost</t>
   </si>
   <si>
-    <t>Still running grid search, added back in grades &lt; 60. Removing rows without prereqs helped a bunch on train/test. Quantile error bars look good w new data</t>
+    <t>Still running grid search, added back in grades &lt; 60. Removing rows without prereqs helped a bunch on train/test. Quantile error bars look good w new data. Bootstrap error bars on xgboost</t>
+  </si>
+  <si>
+    <t>should play around with bootstrapping more</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1128,7 +1131,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1136,10 +1139,15 @@
         <v>53</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G35" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9539B-0CAC-4CC4-BD18-4AEA2BBB4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCEE42D-B1C3-4F4E-9830-5573E7098250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>should play around with bootstrapping more</t>
+  </si>
+  <si>
+    <t>creating bootstrap error bars for gbm, grid search broke - trying again, researching error bars</t>
   </si>
 </sst>
 </file>
@@ -659,21 +662,21 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="2.73046875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
-    <col min="7" max="7" width="31.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -706,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -718,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -730,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -739,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -748,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -757,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -769,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -781,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -793,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -805,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -819,7 +822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -833,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -850,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -864,7 +867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -881,7 +884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -895,7 +898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -912,7 +915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -926,7 +929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -943,7 +946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -957,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -971,7 +974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -988,7 +991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1145,7 +1148,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45456</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="G35" t="s">
         <v>61</v>
       </c>
@@ -1165,15 +1180,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1198,7 +1213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1209,7 +1224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1217,7 +1232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCEE42D-B1C3-4F4E-9830-5573E7098250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23705E65-8A9F-47B9-9CA2-39694FC69DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>creating bootstrap error bars for gbm, grid search broke - trying again, researching error bars</t>
+  </si>
+  <si>
+    <t>gradient boosting on imbalanced data | try add in teachers as factors | add in majors/minor as factors</t>
+  </si>
+  <si>
+    <t>adding more prediction data: professors, majors and minors</t>
   </si>
 </sst>
 </file>
@@ -659,24 +665,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -709,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -721,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -733,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -742,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -751,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -760,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -772,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -784,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -796,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -808,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -822,7 +828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -836,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -853,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -867,7 +873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -884,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -898,7 +904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -915,7 +921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -929,7 +935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -946,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -960,7 +966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -974,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -991,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1163,6 +1169,23 @@
       </c>
       <c r="G35" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="4">
+        <v>45457</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1180,15 +1203,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1202,7 +1225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1213,7 +1236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1224,7 +1247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23705E65-8A9F-47B9-9CA2-39694FC69DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3009E9A5-5941-4DE2-9448-D28D96A22C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,21 +668,21 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="2.73046875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
-    <col min="7" max="7" width="31.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -739,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -748,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -766,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -778,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -890,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -904,7 +904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -921,7 +921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -935,7 +935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -952,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -966,7 +966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -980,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -997,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>52</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>64</v>
@@ -1203,15 +1203,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3009E9A5-5941-4DE2-9448-D28D96A22C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40D8E2E-156A-476F-8DC8-6AC626DE958B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>adding more prediction data: professors, majors and minors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database manipulation and </t>
+  </si>
+  <si>
+    <t>need to make length of student major minors equal to the length of unique student ids, then join. Probably can just use NA skip over profs who wont exist…</t>
+  </si>
+  <si>
+    <t>trying to mesh profs onto main df_bsc table</t>
   </si>
 </sst>
 </file>
@@ -665,24 +674,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -715,7 +724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -727,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -739,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -748,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -757,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -766,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -778,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -790,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -802,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -814,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -828,7 +837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -842,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -859,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -873,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -890,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -904,7 +913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -921,7 +930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -935,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -952,7 +961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -966,7 +975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -980,7 +989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1186,6 +1195,37 @@
       </c>
       <c r="G36" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1203,15 +1243,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1236,7 +1276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1255,7 +1295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40D8E2E-156A-476F-8DC8-6AC626DE958B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E6EBCE-72AB-4EFC-96E6-15C456B0AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>trying to mesh profs onto main df_bsc table</t>
+  </si>
+  <si>
+    <t>organizing things for email update, reading papers on different methods of GBM implementation and variations. Saving profs to studentgrades_prof</t>
   </si>
 </sst>
 </file>
@@ -674,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -689,6 +692,11 @@
     <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
     <col min="6" max="6" width="27.59765625" customWidth="1"/>
     <col min="7" max="7" width="31.265625" customWidth="1"/>
+    <col min="24" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1226,6 +1234,20 @@
       </c>
       <c r="G38" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
+        <v>45463</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E6EBCE-72AB-4EFC-96E6-15C456B0AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5F440F-E21D-431F-AECD-31414D758DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>organizing things for email update, reading papers on different methods of GBM implementation and variations. Saving profs to studentgrades_prof</t>
+  </si>
+  <si>
+    <t>Finished creating studentgrades_prof for test group</t>
   </si>
 </sst>
 </file>
@@ -677,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1248,6 +1251,20 @@
       </c>
       <c r="E39" s="5" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="4">
+        <v>45464</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5F440F-E21D-431F-AECD-31414D758DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B31283-5D8E-4F34-99E2-5405C4F21759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -269,7 +269,10 @@
     <t>organizing things for email update, reading papers on different methods of GBM implementation and variations. Saving profs to studentgrades_prof</t>
   </si>
   <si>
-    <t>Finished creating studentgrades_prof for test group</t>
+    <t>Finished creating studentgrades_prof for test group, ran the analysis with profs; much better with professors</t>
+  </si>
+  <si>
+    <t>paper review, code organization, plan for future steps</t>
   </si>
 </sst>
 </file>
@@ -680,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1253,7 +1256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>45464</v>
       </c>
@@ -1261,10 +1264,24 @@
         <v>52</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="4">
+        <v>45465</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B31283-5D8E-4F34-99E2-5405C4F21759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F267956E-5085-41DE-AC12-A1BE42010593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>paper review, code organization, plan for future steps</t>
+  </si>
+  <si>
+    <t>cleaning professors table, merging professors into main students dataframe</t>
   </si>
 </sst>
 </file>
@@ -683,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1282,6 +1285,20 @@
       </c>
       <c r="E41" s="5" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F267956E-5085-41DE-AC12-A1BE42010593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C5105-C796-4CC6-B5D0-4CF69516EDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>cleaning professors table, merging professors into main students dataframe</t>
+  </si>
+  <si>
+    <t>finalizing studentgrades_prof, cleaning out irrelevant prof columns</t>
+  </si>
+  <si>
+    <t>running GBM with different configurations, fixing prof column removal, adding recursive removal to columns to improve prediction</t>
   </si>
 </sst>
 </file>
@@ -686,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1299,6 +1305,34 @@
       </c>
       <c r="E42" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="4">
+        <v>45475</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A44" s="4">
+        <v>45476</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C5105-C796-4CC6-B5D0-4CF69516EDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73620495-955E-4AE5-AA10-37A63FAAB701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>running GBM with different configurations, fixing prof column removal, adding recursive removal to columns to improve prediction</t>
+  </si>
+  <si>
+    <t>Implementing some variable selection.. Doesn't seem to improve model</t>
+  </si>
+  <si>
+    <t>want to see what happens when predicting single students</t>
   </si>
 </sst>
 </file>
@@ -692,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1333,6 +1339,23 @@
       </c>
       <c r="E44" s="5" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="4">
+        <v>45477</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73620495-955E-4AE5-AA10-37A63FAAB701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF4F69-2AC1-4A2D-A81A-54A87A273F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -284,10 +284,10 @@
     <t>running GBM with different configurations, fixing prof column removal, adding recursive removal to columns to improve prediction</t>
   </si>
   <si>
-    <t>Implementing some variable selection.. Doesn't seem to improve model</t>
-  </si>
-  <si>
     <t>want to see what happens when predicting single students</t>
+  </si>
+  <si>
+    <t>Implementing some variable selection.. Doesn't seem to improve model, trying different courses (seem to need more data), trying a categorical letter grade prediction on students</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1341,7 +1341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>45477</v>
       </c>
@@ -1349,13 +1349,13 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s">
         <v>74</v>
-      </c>
-      <c r="G45" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF4F69-2AC1-4A2D-A81A-54A87A273F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CCE2D-9C9A-4B76-99DC-B6AEF4E66E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Implementing some variable selection.. Doesn't seem to improve model, trying different courses (seem to need more data), trying a categorical letter grade prediction on students</t>
+  </si>
+  <si>
+    <t>set up heat map for letter grade prediction, changing several variables to check improvement (train/test ratio, necessary pre reqs, # of Nas allowed in columns)</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1356,6 +1359,20 @@
       </c>
       <c r="G45" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A46" s="4">
+        <v>45478</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CCE2D-9C9A-4B76-99DC-B6AEF4E66E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64D8E1-9FA9-4558-B371-964740ED1B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>set up heat map for letter grade prediction, changing several variables to check improvement (train/test ratio, necessary pre reqs, # of Nas allowed in columns)</t>
+  </si>
+  <si>
+    <t>organizing data for meeting, meeting</t>
+  </si>
+  <si>
+    <t>creating a new markdown with entire workflow: loading data, processing data, training model, results</t>
   </si>
 </sst>
 </file>
@@ -701,29 +707,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="2.73046875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
-    <col min="7" max="7" width="31.265625" customWidth="1"/>
-    <col min="24" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -756,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -768,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -780,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -789,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -798,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -807,7 +813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -819,7 +825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -831,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -843,7 +849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -855,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -883,7 +889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -900,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -914,7 +920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -931,7 +937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -945,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -962,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -976,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -993,7 +999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45460</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45461</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45463</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45464</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45465</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45474</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45475</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45476</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45477</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45478</v>
       </c>
@@ -1373,6 +1379,23 @@
       </c>
       <c r="E46" s="5" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45483</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1390,15 +1413,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1412,7 +1435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +1446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1442,7 +1465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64D8E1-9FA9-4558-B371-964740ED1B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D86EA-FE99-4724-B6A6-BA084E7F56EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,10 +293,10 @@
     <t>set up heat map for letter grade prediction, changing several variables to check improvement (train/test ratio, necessary pre reqs, # of Nas allowed in columns)</t>
   </si>
   <si>
-    <t>organizing data for meeting, meeting</t>
-  </si>
-  <si>
     <t>creating a new markdown with entire workflow: loading data, processing data, training model, results</t>
+  </si>
+  <si>
+    <t>organizing data for meeting, meeting, structuring new rmd with all work completed this summer, adding student grades code</t>
   </si>
 </sst>
 </file>
@@ -709,27 +709,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="31.265625" customWidth="1"/>
+    <col min="24" max="25" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -786,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -825,7 +825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -837,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -849,7 +849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -875,7 +875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -889,7 +889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -920,7 +920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -937,7 +937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -951,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -968,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -982,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -999,7 +999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>45460</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>45461</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>45463</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>45464</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>45465</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>45474</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>45475</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>45476</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>45477</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>45478</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>45483</v>
       </c>
@@ -1389,13 +1389,13 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
         <v>77</v>
-      </c>
-      <c r="G47" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1413,15 +1413,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D86EA-FE99-4724-B6A6-BA084E7F56EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB0829-5FB8-4433-8E00-B1A64E47927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>organizing data for meeting, meeting, structuring new rmd with all work completed this summer, adding student grades code</t>
+  </si>
+  <si>
+    <t>working on compiling all code, considering adjusting student grades to either: two different named dfs, or altering the structure of .1 .2 to accommodate other code (would be more work but we can use first attempt data easily)</t>
   </si>
 </sst>
 </file>
@@ -707,29 +710,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="2.73046875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
-    <col min="7" max="7" width="31.265625" customWidth="1"/>
-    <col min="24" max="25" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -762,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -774,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -786,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -795,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -804,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -813,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -825,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -837,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -849,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -861,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -875,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -889,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -906,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -920,7 +923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -937,7 +940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -951,7 +954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -968,7 +971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -982,7 +985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45460</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45461</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45463</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45464</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45465</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45474</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45475</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45476</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45477</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45478</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45483</v>
       </c>
@@ -1396,6 +1399,20 @@
       </c>
       <c r="G47" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45484</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1413,15 +1430,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1435,7 +1452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1446,7 +1463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1457,7 +1474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1465,7 +1482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB0829-5FB8-4433-8E00-B1A64E47927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E66F4C-179C-477A-BB69-0035935C08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>working on compiling all code, considering adjusting student grades to either: two different named dfs, or altering the structure of .1 .2 to accommodate other code (would be more work but we can use first attempt data easily)</t>
+  </si>
+  <si>
+    <t>continuing to compile all code. Finished adding code from the EDA and moved onto gbm rmd file. Have made some comments but mainly trying to sort how and where data is saved to ensure a smooth running rmd</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,6 +1416,20 @@
       </c>
       <c r="E48" s="5" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45485</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E66F4C-179C-477A-BB69-0035935C08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EDBCDB-DB7F-4BF3-BBD1-2AAF98374C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>continuing to compile all code. Finished adding code from the EDA and moved onto gbm rmd file. Have made some comments but mainly trying to sort how and where data is saved to ensure a smooth running rmd</t>
+  </si>
+  <si>
+    <t>need to ensure it runs smoothly with student grades dfs, AND comment each chunk</t>
+  </si>
+  <si>
+    <t>Finished compiling code, drawn out rmd structure, started commenting</t>
   </si>
 </sst>
 </file>
@@ -713,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45485</v>
       </c>
@@ -1430,6 +1436,23 @@
       </c>
       <c r="E49" s="5" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45486</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EDBCDB-DB7F-4BF3-BBD1-2AAF98374C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8C0C22-ED0B-4450-B453-97A99E72E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -719,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,6 +1453,17 @@
       </c>
       <c r="G50" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>45488</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8C0C22-ED0B-4450-B453-97A99E72E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B347C1B-B990-4CB3-8E05-72956B927432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Finished compiling code, drawn out rmd structure, started commenting</t>
+  </si>
+  <si>
+    <t>Differentiated the three studentgrades (_rep and _prof). Started commenting code, some revising on code.</t>
+  </si>
+  <si>
+    <t>Finished commenting code. Ensuring it runs/knits correctly. Need to finish up error bar section, RFE, and xgbms</t>
   </si>
 </sst>
 </file>
@@ -719,29 +725,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="31.265625" customWidth="1"/>
+    <col min="24" max="25" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -774,7 +780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -786,7 +792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -798,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -807,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -816,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -825,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -837,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -849,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -861,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -873,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -901,7 +907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -918,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -932,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -949,7 +955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -963,7 +969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -980,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>45460</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>45461</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>45463</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>45464</v>
       </c>
@@ -1306,7 +1312,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>45465</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>45474</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>45475</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>45476</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>45477</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>45478</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>45483</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>45484</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>45485</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>45486</v>
       </c>
@@ -1455,15 +1461,32 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
+        <v>45487</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A52" s="4">
         <v>45488</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C51">
-        <v>2</v>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1481,15 +1504,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1503,7 +1526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1514,7 +1537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1525,7 +1548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B347C1B-B990-4CB3-8E05-72956B927432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7B4AB-A72D-43EF-A4CD-20E3FA0AADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -725,29 +725,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="2.73046875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
-    <col min="7" max="7" width="31.265625" customWidth="1"/>
-    <col min="24" max="25" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -792,7 +792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -813,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -843,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -893,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -907,7 +907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -924,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -938,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -955,7 +955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -969,7 +969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -986,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45460</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45461</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45463</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45464</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45465</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45474</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45475</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45476</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45477</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45478</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45483</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45484</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45485</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45486</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45487</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45488</v>
       </c>
@@ -1487,6 +1487,14 @@
       </c>
       <c r="E52" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45489</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1504,15 +1512,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1526,7 +1534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1548,7 +1556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7B4AB-A72D-43EF-A4CD-20E3FA0AADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBEFEC0-1E65-47C7-A48D-03375BB0ECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>Finished commenting code. Ensuring it runs/knits correctly. Need to finish up error bar section, RFE, and xgbms</t>
+  </si>
+  <si>
+    <t>Made sure all code was running smoothly, prepared for meeting, started looking into the new data</t>
+  </si>
+  <si>
+    <t>Doing more exploring into the new data…. There are not nearly enough rows… will email irene</t>
+  </si>
+  <si>
+    <t>Compiled all old data with new data (excluding overlap).</t>
   </si>
 </sst>
 </file>
@@ -725,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,12 +1498,54 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>45489</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>50</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45490</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>45491</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>45492</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBEFEC0-1E65-47C7-A48D-03375BB0ECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C0249-0181-470A-871E-2486ADDE1A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -323,7 +323,13 @@
     <t>Doing more exploring into the new data…. There are not nearly enough rows… will email irene</t>
   </si>
   <si>
-    <t>Compiled all old data with new data (excluding overlap).</t>
+    <t>Compiled all old data with new data (excluding overlap). Running and testing old code with new dataset, everything working fine</t>
+  </si>
+  <si>
+    <t>implementing residency, gender, citizenship. Have to rewrite and recompile new rows into old df to include gender etc.</t>
+  </si>
+  <si>
+    <t>added new rows to both studentgrades and studentgrades_prof. new columns for new variables. Doesn't seem to be helping, in fact performing worse… need to debug</t>
   </si>
 </sst>
 </file>
@@ -734,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45491</v>
       </c>
@@ -1534,18 +1540,38 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45492</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>45495</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C0249-0181-470A-871E-2486ADDE1A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8694BDEB-0F10-4264-9ACA-8A6BC66B5BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -329,7 +329,7 @@
     <t>implementing residency, gender, citizenship. Have to rewrite and recompile new rows into old df to include gender etc.</t>
   </si>
   <si>
-    <t>added new rows to both studentgrades and studentgrades_prof. new columns for new variables. Doesn't seem to be helping, in fact performing worse… need to debug</t>
+    <t>added new rows to both studentgrades and studentgrades_prof. new columns for new variables. Doesn't seem to be helping, in fact performing worse… need to debug, can't tell if it’s the new student affecting prediction…</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45495</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>89</v>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8694BDEB-0F10-4264-9ACA-8A6BC66B5BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735496EE-2F51-4397-A454-72C021C6920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>added new rows to both studentgrades and studentgrades_prof. new columns for new variables. Doesn't seem to be helping, in fact performing worse… need to debug, can't tell if it’s the new student affecting prediction…</t>
+  </si>
+  <si>
+    <t>meeting, debugging the knit of work complilation, compiling all model rmse for a graph</t>
+  </si>
+  <si>
+    <t>studentgrades and studentgrades_prof and both with the new student data</t>
+  </si>
+  <si>
+    <t>making GBMs work on the 4 dataset variations:     setting up dataframe to collect all rmse, kitting to html</t>
   </si>
 </sst>
 </file>
@@ -394,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -405,6 +414,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,6 +1584,37 @@
       </c>
       <c r="E57" s="5" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45496</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>45497</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735496EE-2F51-4397-A454-72C021C6920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA0A87A-6A7D-4739-8199-1C65327EAB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>making GBMs work on the 4 dataset variations:     setting up dataframe to collect all rmse, kitting to html</t>
+  </si>
+  <si>
+    <t>Cleaning up graph comparing models, sent email, reading up on imputation</t>
+  </si>
+  <si>
+    <t>Testing studentgrades_prof with imputation again, on all courses used in GBM</t>
   </si>
 </sst>
 </file>
@@ -752,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,6 +1621,34 @@
       </c>
       <c r="F59" s="7" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>45498</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>45499</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA0A87A-6A7D-4739-8199-1C65327EAB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8ED9D9-3261-48F5-B98E-49E5BAF1586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Testing studentgrades_prof with imputation again, on all courses used in GBM</t>
+  </si>
+  <si>
+    <t>Reviewing the imputation methods, found out we were leaking grades into prediction variables so those methods cannot be used. Looking into the possibility of neural nets for prediction</t>
   </si>
 </sst>
 </file>
@@ -758,29 +761,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="31.265625" customWidth="1"/>
+    <col min="24" max="25" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -813,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -825,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -837,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -846,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -855,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -864,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -876,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -888,7 +891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -900,7 +903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -912,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -926,7 +929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -940,7 +943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -957,7 +960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -971,7 +974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -988,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>45460</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>45461</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>45463</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>45464</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>45465</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>45474</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>45475</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>45476</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>45477</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>45478</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>45483</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>45484</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>45485</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>45486</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>45487</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
         <v>45488</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <v>45489</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>45490</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>45491</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>45492</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <v>45495</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>45496</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>45497</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>45498</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>45499</v>
       </c>
@@ -1649,6 +1652,20 @@
       </c>
       <c r="E61" s="5" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A62" s="4">
+        <v>45502</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1666,15 +1683,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1699,7 +1716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1710,7 +1727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1718,7 +1735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8ED9D9-3261-48F5-B98E-49E5BAF1586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B9DF5C-B97D-4D9A-BA01-B667E542325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B9DF5C-B97D-4D9A-BA01-B667E542325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6769A164-1062-4C9D-9FC4-3E85D5F039D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>Reviewing the imputation methods, found out we were leaking grades into prediction variables so those methods cannot be used. Looking into the possibility of neural nets for prediction</t>
+  </si>
+  <si>
+    <t>Building datasets for COSC 221, DATA 301 &amp; 311. Used STAT 230 too. Built grid search to find patterns between best hyperparameters. Started code</t>
+  </si>
+  <si>
+    <t>A lower shrinkage rate and slightly higher interacton depth performed better,  Minimum number of observations in terminal nodes (n.minobsinnode) seemed to move around with no pattern. Repeated for STAT 303 and MATH 221</t>
+  </si>
+  <si>
+    <t>MATH 221 didn't seem to perform well depite having the most students having taken the course. Doing separate testing on on MATH 221 on the main function to see if the setup isn't working.</t>
+  </si>
+  <si>
+    <t>Re running  grid search on all datasets and re evaluating RMSEs. The RMSEs dropped 0.5-1 for each of the courses and similar observations with hyperparameters were found.</t>
   </si>
 </sst>
 </file>
@@ -761,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1666,6 +1678,62 @@
       </c>
       <c r="E62" s="5" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A63" s="4">
+        <v>45504</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A64" s="4">
+        <v>45505</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A65" s="4">
+        <v>45507</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A66" s="4">
+        <v>45509</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Git\UBCO-Grade-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6769A164-1062-4C9D-9FC4-3E85D5F039D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2570D3-F628-4AEC-92B9-59DEACDB2DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Re running  grid search on all datasets and re evaluating RMSEs. The RMSEs dropped 0.5-1 for each of the courses and similar observations with hyperparameters were found.</t>
+  </si>
+  <si>
+    <t>Setting up CUDA and environment for neural networks. This was done in python 3.12.4 and torch 2.4.0 (pytorch). Created a new base dataset using the original raw data with professors. A Long Short Term Memory model was used to feed in the data row by row.</t>
   </si>
 </sst>
 </file>
@@ -773,29 +776,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="2.73046875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="2.1328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
-    <col min="7" max="7" width="31.265625" customWidth="1"/>
-    <col min="24" max="25" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45407</v>
       </c>
@@ -828,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45412</v>
       </c>
@@ -840,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45414</v>
       </c>
@@ -852,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45415</v>
       </c>
@@ -861,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45417</v>
       </c>
@@ -870,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45418</v>
       </c>
@@ -879,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45419</v>
       </c>
@@ -891,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45420</v>
       </c>
@@ -903,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45421</v>
       </c>
@@ -915,7 +918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45422</v>
       </c>
@@ -927,7 +930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45425</v>
       </c>
@@ -941,7 +944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45426</v>
       </c>
@@ -955,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45427</v>
       </c>
@@ -972,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45428</v>
       </c>
@@ -986,7 +989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45429</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45430</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45431</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45433</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45434</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45435</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45436</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45438</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45440</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45441</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45442</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45443</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45446</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45447</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45448</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45455</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45456</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45457</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45460</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45461</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45463</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45464</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45465</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45474</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45475</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45476</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45477</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45478</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45483</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45484</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45485</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45486</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45487</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45488</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>45489</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45490</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45491</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45492</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45495</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45496</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45497</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45498</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>45499</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>45502</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>45504</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45505</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>45507</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45509</v>
       </c>
@@ -1734,6 +1737,20 @@
       </c>
       <c r="E66" s="5" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>45510</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1751,15 +1768,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1784,7 +1801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1795,7 +1812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1803,7 +1820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>46</v>
       </c>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2570D3-F628-4AEC-92B9-59DEACDB2DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0ED200-9F94-429B-9B1E-74F623256BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>Setting up CUDA and environment for neural networks. This was done in python 3.12.4 and torch 2.4.0 (pytorch). Created a new base dataset using the original raw data with professors. A Long Short Term Memory model was used to feed in the data row by row.</t>
+  </si>
+  <si>
+    <t>Debugging and trying to format data into model. Need to factor everything and push as ints.</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/figure/Model-description-of-the-hybrid-2D-CNN-Model_fig1_359461812</t>
+  </si>
+  <si>
+    <t>Saved a factored model to use in pytorch. Reading research papers on CNNs use in grade prediction. Set up and run custom CNNs on grades. Haven't set up certain courses yet.</t>
   </si>
 </sst>
 </file>
@@ -776,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>45507</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45509</v>
       </c>
@@ -1739,7 +1748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>45510</v>
       </c>
@@ -1751,6 +1760,37 @@
       </c>
       <c r="E67" s="5" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>45511</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>45512</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0ED200-9F94-429B-9B1E-74F623256BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5D17CE-C4B7-4373-B497-E7753C66FB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>Saved a factored model to use in pytorch. Reading research papers on CNNs use in grade prediction. Set up and run custom CNNs on grades. Haven't set up certain courses yet.</t>
+  </si>
+  <si>
+    <t>Reading more on neural network structures and starting the implementation process.</t>
+  </si>
+  <si>
+    <t>Built two models. A simple linear model, and a CNN. Changing and designing train/test sets for different subjects.</t>
   </si>
 </sst>
 </file>
@@ -785,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,6 +1797,34 @@
       </c>
       <c r="F69" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>45514</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>45515</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5D17CE-C4B7-4373-B497-E7753C66FB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6ECFAE-325B-4EEB-BDEF-13FEAE45BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>Built two models. A simple linear model, and a CNN. Changing and designing train/test sets for different subjects.</t>
+  </si>
+  <si>
+    <t>Changed train/val/test sets to be 10% of course we're trying to predict on for each of validation and testing, and the rest of the rows were used for training. Implemented the model from the paper, and a simple sequential model. Sequential was same as linear model performance and all. The model from the paper performed the best</t>
+  </si>
+  <si>
+    <t>change training set to only have student's grades who have taken the course we're trying to predict on</t>
   </si>
 </sst>
 </file>
@@ -791,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,7 +1732,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>45507</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45509</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>45510</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45511</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>45512</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>45514</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>45515</v>
       </c>
@@ -1825,6 +1831,23 @@
       </c>
       <c r="E71" s="5" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>45516</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Summer 2024 Working Hours.xlsx
+++ b/Summer 2024 Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\UBCO-Grade-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6ECFAE-325B-4EEB-BDEF-13FEAE45BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A51FA9F-1462-4E14-A9ED-96A1CE1FBA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F181F4-7687-440B-825F-2C207C6D6F7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>change training set to only have student's grades who have taken the course we're trying to predict on</t>
+  </si>
+  <si>
+    <t>Editting the rmd file and knitting. Corrections include: adding links to data and models, adding graphs for each model, cleaning up and displaying all dataset formats, reducing output overall to only include relevant information.</t>
+  </si>
+  <si>
+    <t>text for results, organize rdata files to folder, add a description to the github</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -462,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A58F2-8B3E-430D-B398-5A920816A326}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1859,39 @@
         <v>107</v>
       </c>
     </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>45519</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>45520</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="G74" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E73:E74"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
